--- a/students.xlsx
+++ b/students.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>u23cs056@coed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>u23cs050@coed.snit.ac.in</t>
   </si>
 </sst>
 </file>
@@ -1194,13 +1197,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="24.3716814159292" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1217,10 +1223,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="u23cs047@coed.svnit.ac.in"/>
     <hyperlink ref="A3" r:id="rId2" display="u23cs056@coed.svnit.ac.in"/>
+    <hyperlink ref="A4" r:id="rId3" display="u23cs050@coed.snit.ac.in"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
